--- a/test.xlsx
+++ b/test.xlsx
@@ -24,9 +24,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="2">
   <si>
     <t>yangdjkldsj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dodododo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -357,15 +361,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C6:I24"/>
+  <dimension ref="C6:U24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:I24"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="6" spans="3:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="3:21" x14ac:dyDescent="0.4">
       <c r="C6" t="s">
         <v>0</v>
       </c>
@@ -388,7 +392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="3:21" x14ac:dyDescent="0.4">
       <c r="C7" t="s">
         <v>0</v>
       </c>
@@ -411,7 +415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="3:21" x14ac:dyDescent="0.4">
       <c r="C8" t="s">
         <v>0</v>
       </c>
@@ -433,8 +437,35 @@
       <c r="I8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="M8" t="s">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>1</v>
+      </c>
+      <c r="O8" t="s">
+        <v>1</v>
+      </c>
+      <c r="P8" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>1</v>
+      </c>
+      <c r="R8" t="s">
+        <v>1</v>
+      </c>
+      <c r="S8" t="s">
+        <v>1</v>
+      </c>
+      <c r="T8" t="s">
+        <v>1</v>
+      </c>
+      <c r="U8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="3:21" x14ac:dyDescent="0.4">
       <c r="C9" t="s">
         <v>0</v>
       </c>
@@ -456,8 +487,35 @@
       <c r="I9" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="M9" t="s">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>1</v>
+      </c>
+      <c r="O9" t="s">
+        <v>1</v>
+      </c>
+      <c r="P9" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>1</v>
+      </c>
+      <c r="R9" t="s">
+        <v>1</v>
+      </c>
+      <c r="S9" t="s">
+        <v>1</v>
+      </c>
+      <c r="T9" t="s">
+        <v>1</v>
+      </c>
+      <c r="U9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="3:21" x14ac:dyDescent="0.4">
       <c r="C10" t="s">
         <v>0</v>
       </c>
@@ -479,8 +537,35 @@
       <c r="I10" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="M10" t="s">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>1</v>
+      </c>
+      <c r="O10" t="s">
+        <v>1</v>
+      </c>
+      <c r="P10" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>1</v>
+      </c>
+      <c r="R10" t="s">
+        <v>1</v>
+      </c>
+      <c r="S10" t="s">
+        <v>1</v>
+      </c>
+      <c r="T10" t="s">
+        <v>1</v>
+      </c>
+      <c r="U10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="3:21" x14ac:dyDescent="0.4">
       <c r="C11" t="s">
         <v>0</v>
       </c>
@@ -502,8 +587,35 @@
       <c r="I11" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="M11" t="s">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>1</v>
+      </c>
+      <c r="O11" t="s">
+        <v>1</v>
+      </c>
+      <c r="P11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>1</v>
+      </c>
+      <c r="R11" t="s">
+        <v>1</v>
+      </c>
+      <c r="S11" t="s">
+        <v>1</v>
+      </c>
+      <c r="T11" t="s">
+        <v>1</v>
+      </c>
+      <c r="U11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="3:21" x14ac:dyDescent="0.4">
       <c r="C12" t="s">
         <v>0</v>
       </c>
@@ -525,8 +637,35 @@
       <c r="I12" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="M12" t="s">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>1</v>
+      </c>
+      <c r="O12" t="s">
+        <v>1</v>
+      </c>
+      <c r="P12" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>1</v>
+      </c>
+      <c r="R12" t="s">
+        <v>1</v>
+      </c>
+      <c r="S12" t="s">
+        <v>1</v>
+      </c>
+      <c r="T12" t="s">
+        <v>1</v>
+      </c>
+      <c r="U12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="3:21" x14ac:dyDescent="0.4">
       <c r="C13" t="s">
         <v>0</v>
       </c>
@@ -548,8 +687,35 @@
       <c r="I13" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="M13" t="s">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>1</v>
+      </c>
+      <c r="O13" t="s">
+        <v>1</v>
+      </c>
+      <c r="P13" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>1</v>
+      </c>
+      <c r="R13" t="s">
+        <v>1</v>
+      </c>
+      <c r="S13" t="s">
+        <v>1</v>
+      </c>
+      <c r="T13" t="s">
+        <v>1</v>
+      </c>
+      <c r="U13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="3:21" x14ac:dyDescent="0.4">
       <c r="C14" t="s">
         <v>0</v>
       </c>
@@ -571,8 +737,35 @@
       <c r="I14" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="M14" t="s">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>1</v>
+      </c>
+      <c r="O14" t="s">
+        <v>1</v>
+      </c>
+      <c r="P14" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>1</v>
+      </c>
+      <c r="R14" t="s">
+        <v>1</v>
+      </c>
+      <c r="S14" t="s">
+        <v>1</v>
+      </c>
+      <c r="T14" t="s">
+        <v>1</v>
+      </c>
+      <c r="U14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="3:21" x14ac:dyDescent="0.4">
       <c r="C15" t="s">
         <v>0</v>
       </c>
@@ -594,8 +787,35 @@
       <c r="I15" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="M15" t="s">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>1</v>
+      </c>
+      <c r="O15" t="s">
+        <v>1</v>
+      </c>
+      <c r="P15" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>1</v>
+      </c>
+      <c r="R15" t="s">
+        <v>1</v>
+      </c>
+      <c r="S15" t="s">
+        <v>1</v>
+      </c>
+      <c r="T15" t="s">
+        <v>1</v>
+      </c>
+      <c r="U15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="3:21" x14ac:dyDescent="0.4">
       <c r="C16" t="s">
         <v>0</v>
       </c>
@@ -617,8 +837,35 @@
       <c r="I16" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="M16" t="s">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>1</v>
+      </c>
+      <c r="O16" t="s">
+        <v>1</v>
+      </c>
+      <c r="P16" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>1</v>
+      </c>
+      <c r="R16" t="s">
+        <v>1</v>
+      </c>
+      <c r="S16" t="s">
+        <v>1</v>
+      </c>
+      <c r="T16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.4">
       <c r="C17" t="s">
         <v>0</v>
       </c>
@@ -640,8 +887,35 @@
       <c r="I17" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="M17" t="s">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>1</v>
+      </c>
+      <c r="O17" t="s">
+        <v>1</v>
+      </c>
+      <c r="P17" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>1</v>
+      </c>
+      <c r="R17" t="s">
+        <v>1</v>
+      </c>
+      <c r="S17" t="s">
+        <v>1</v>
+      </c>
+      <c r="T17" t="s">
+        <v>1</v>
+      </c>
+      <c r="U17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.4">
       <c r="C18" t="s">
         <v>0</v>
       </c>
@@ -663,8 +937,35 @@
       <c r="I18" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="M18" t="s">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>1</v>
+      </c>
+      <c r="O18" t="s">
+        <v>1</v>
+      </c>
+      <c r="P18" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>1</v>
+      </c>
+      <c r="R18" t="s">
+        <v>1</v>
+      </c>
+      <c r="S18" t="s">
+        <v>1</v>
+      </c>
+      <c r="T18" t="s">
+        <v>1</v>
+      </c>
+      <c r="U18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.4">
       <c r="C19" t="s">
         <v>0</v>
       </c>
@@ -686,8 +987,35 @@
       <c r="I19" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="M19" t="s">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>1</v>
+      </c>
+      <c r="O19" t="s">
+        <v>1</v>
+      </c>
+      <c r="P19" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>1</v>
+      </c>
+      <c r="R19" t="s">
+        <v>1</v>
+      </c>
+      <c r="S19" t="s">
+        <v>1</v>
+      </c>
+      <c r="T19" t="s">
+        <v>1</v>
+      </c>
+      <c r="U19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.4">
       <c r="C20" t="s">
         <v>0</v>
       </c>
@@ -709,8 +1037,35 @@
       <c r="I20" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="M20" t="s">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>1</v>
+      </c>
+      <c r="O20" t="s">
+        <v>1</v>
+      </c>
+      <c r="P20" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>1</v>
+      </c>
+      <c r="R20" t="s">
+        <v>1</v>
+      </c>
+      <c r="S20" t="s">
+        <v>1</v>
+      </c>
+      <c r="T20" t="s">
+        <v>1</v>
+      </c>
+      <c r="U20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.4">
       <c r="C21" t="s">
         <v>0</v>
       </c>
@@ -732,8 +1087,35 @@
       <c r="I21" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="M21" t="s">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>1</v>
+      </c>
+      <c r="O21" t="s">
+        <v>1</v>
+      </c>
+      <c r="P21" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>1</v>
+      </c>
+      <c r="R21" t="s">
+        <v>1</v>
+      </c>
+      <c r="S21" t="s">
+        <v>1</v>
+      </c>
+      <c r="T21" t="s">
+        <v>1</v>
+      </c>
+      <c r="U21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.4">
       <c r="C22" t="s">
         <v>0</v>
       </c>
@@ -755,8 +1137,35 @@
       <c r="I22" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="M22" t="s">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>1</v>
+      </c>
+      <c r="O22" t="s">
+        <v>1</v>
+      </c>
+      <c r="P22" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>1</v>
+      </c>
+      <c r="R22" t="s">
+        <v>1</v>
+      </c>
+      <c r="S22" t="s">
+        <v>1</v>
+      </c>
+      <c r="T22" t="s">
+        <v>1</v>
+      </c>
+      <c r="U22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.4">
       <c r="C23" t="s">
         <v>0</v>
       </c>
@@ -778,8 +1187,35 @@
       <c r="I23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="M23" t="s">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>1</v>
+      </c>
+      <c r="O23" t="s">
+        <v>1</v>
+      </c>
+      <c r="P23" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>1</v>
+      </c>
+      <c r="R23" t="s">
+        <v>1</v>
+      </c>
+      <c r="S23" t="s">
+        <v>1</v>
+      </c>
+      <c r="T23" t="s">
+        <v>1</v>
+      </c>
+      <c r="U23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.4">
       <c r="C24" t="s">
         <v>0</v>
       </c>
@@ -800,6 +1236,33 @@
       </c>
       <c r="I24" t="s">
         <v>0</v>
+      </c>
+      <c r="M24" t="s">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>1</v>
+      </c>
+      <c r="O24" t="s">
+        <v>1</v>
+      </c>
+      <c r="P24" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>1</v>
+      </c>
+      <c r="R24" t="s">
+        <v>1</v>
+      </c>
+      <c r="S24" t="s">
+        <v>1</v>
+      </c>
+      <c r="T24" t="s">
+        <v>1</v>
+      </c>
+      <c r="U24" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
